--- a/簿记/Manufacturing Account/Question 4.xlsx
+++ b/簿记/Manufacturing Account/Question 4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melvinchia/Documents/involution/簿记/Manufacturing Account/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C557B8-A140-564E-B673-B260839CCED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545F1C7D-A122-6249-A213-E083E9008247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{95A0E6C8-E6E6-564D-9B9C-4702E1FCE255}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{95A0E6C8-E6E6-564D-9B9C-4702E1FCE255}"/>
   </bookViews>
   <sheets>
     <sheet name="Manufacturing Account" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>Cost of Materials Consumed</t>
   </si>
@@ -283,11 +283,8 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -295,9 +292,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -616,10 +612,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -628,30 +624,31 @@
     <col min="2" max="4" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="20"/>
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="21"/>
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-    </row>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="20"/>
+    </row>
+    <row r="4" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="16" t="s">
@@ -660,9 +657,7 @@
       <c r="C5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>1</v>
-      </c>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
@@ -677,8 +672,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4">
+      <c r="C7" s="4">
         <v>2600</v>
       </c>
     </row>
@@ -699,266 +693,242 @@
       <c r="B9" s="7">
         <v>-600</v>
       </c>
-      <c r="C9" s="8">
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="8">
         <f>B8+B9</f>
         <v>185400</v>
       </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="7">
+      <c r="B11" s="7">
         <v>1500</v>
       </c>
-      <c r="D10" s="7">
-        <f>C9+C10</f>
+      <c r="C11" s="7">
+        <f>B10+B11</f>
         <v>186900</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4">
-        <f>D7+D10</f>
+    <row r="12" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4">
+        <f>C7+C11</f>
         <v>189500</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="7">
+      <c r="B13" s="4"/>
+      <c r="C13" s="7">
         <v>-8600</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4">
-        <f>D11+D12</f>
+    <row r="14" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4">
+        <f>C12+C13</f>
         <v>180900</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+    <row r="15" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="4">
+    </row>
+    <row r="16" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4">
         <v>155000</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+    <row r="17" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="7">
+    </row>
+    <row r="18" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="7">
         <v>3500</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D18" s="10">
-        <f>D13+D15+D17</f>
+    <row r="19" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="10">
+        <f>C14+C16+C18</f>
         <v>339400</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+    <row r="20" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="7">
+      <c r="B20" s="4"/>
+      <c r="C20" s="7">
         <v>5800</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4">
-        <f>D18+D19</f>
+    <row r="21" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4">
+        <f>C19+C20</f>
         <v>345200</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+    <row r="22" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="7">
+      <c r="B22" s="4"/>
+      <c r="C22" s="7">
         <v>-4100</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
+    <row r="23" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4">
-        <f>D20+D21</f>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4">
+        <f>C21+C22</f>
         <v>341100</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+    <row r="24" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="4">
-        <v>28600</v>
-      </c>
+      <c r="C24" s="4"/>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4">
-        <v>1300</v>
-      </c>
-      <c r="D25" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="B25" s="4">
+        <v>28600</v>
+      </c>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4">
-        <v>23000</v>
-      </c>
-      <c r="D26" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1300</v>
+      </c>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4">
-        <v>16500</v>
-      </c>
-      <c r="D27" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="B27" s="4">
+        <v>23000</v>
+      </c>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="4">
+        <v>16500</v>
+      </c>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4">
+      <c r="B29" s="4">
         <f>(6500 - 900) * 3/4</f>
         <v>4200</v>
       </c>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4">
-        <v>2600</v>
-      </c>
-      <c r="D29" s="4"/>
+      <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="4">
+        <v>2600</v>
+      </c>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4">
+      <c r="B31" s="4">
         <f>1500 /5*2</f>
         <v>600</v>
       </c>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="7">
-        <v>1100</v>
-      </c>
-      <c r="D31" s="7">
-        <f>SUM(C24:C31)</f>
-        <v>77900</v>
-      </c>
+      <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="7">
+        <v>1100</v>
+      </c>
+      <c r="C32" s="7">
+        <f>SUM(B25:B32)</f>
+        <v>77900</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4">
-        <f>D22+D31</f>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4">
+        <f>C23+C32</f>
         <v>419000</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
+    <row r="34" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="7">
-        <f>D32*10%</f>
+      <c r="B34" s="4"/>
+      <c r="C34" s="7">
+        <f>C33*10%</f>
         <v>41900</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+    <row r="35" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="11">
-        <f>D32+D33</f>
+      <c r="B35" s="4"/>
+      <c r="C35" s="11">
+        <f>C33+C34</f>
         <v>460900</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1156,11 +1126,17 @@
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
     </row>
+    <row r="69" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="3"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1175,8 +1151,8 @@
   </sheetPr>
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView showGridLines="0" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1186,25 +1162,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
     </row>
     <row r="4" spans="1:3" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
@@ -1322,7 +1298,7 @@
     <row r="17" spans="1:3" s="5" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="21">
+      <c r="C17" s="17">
         <f>C15+C16</f>
         <v>85900</v>
       </c>
